--- a/godot-luban-data/Configs/Data/__enums__.xlsx
+++ b/godot-luban-data/Configs/Data/__enums__.xlsx
@@ -178,7 +178,7 @@
     <t>EAttributeType</t>
   </si>
   <si>
-    <t>Heath</t>
+    <t>Health</t>
   </si>
   <si>
     <t>生命</t>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C21:C22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -1465,7 +1465,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/godot-luban-data/Configs/Data/__enums__.xlsx
+++ b/godot-luban-data/Configs/Data/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23003" windowHeight="11351" activeTab="2"/>
+    <workbookView windowWidth="23220" windowHeight="11915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="示例" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
     <t>EAttributeType</t>
   </si>
   <si>
-    <t>Heath</t>
+    <t>Health</t>
   </si>
   <si>
     <t>生命</t>
@@ -1255,7 +1255,6 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4"/>
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1447,7 +1446,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
